--- a/Заказ 729.xlsx
+++ b/Заказ 729.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="7560"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="76">
   <si>
     <t>Коммерческое предложение № 729</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Наименование</t>
-  </si>
-  <si>
-    <t>Кол-во</t>
   </si>
   <si>
     <t>Ролик Roto Sliding 17 мм, шт.</t>
@@ -257,7 +254,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -489,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -507,69 +504,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -584,9 +539,51 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1924,9 +1921,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1964,7 +1961,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2036,7 +2033,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2210,170 +2207,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S249"/>
+  <dimension ref="B1:Q249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="10" width="3.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="0.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
-    <col min="19" max="19" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="2.69921875" customWidth="1"/>
+    <col min="4" max="4" width="3.69921875" customWidth="1"/>
+    <col min="5" max="5" width="1.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.296875" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" customWidth="1"/>
+    <col min="9" max="10" width="3.69921875" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" customWidth="1"/>
+    <col min="12" max="12" width="4.59765625" customWidth="1"/>
+    <col min="13" max="13" width="8.296875" customWidth="1"/>
+    <col min="14" max="14" width="0.296875" customWidth="1"/>
+    <col min="15" max="15" width="5.59765625" customWidth="1"/>
+    <col min="16" max="16" width="4.59765625" customWidth="1"/>
+    <col min="17" max="17" width="0.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="41.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="2:15" ht="3.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-    </row>
-    <row r="10" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-    </row>
-    <row r="11" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>32.154000000000003</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-    </row>
-    <row r="12" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-    </row>
-    <row r="13" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2381,8 +2366,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2390,21 +2375,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2412,87 +2397,79 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="20">
         <v>4.8330000000000002</v>
       </c>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="20">
         <v>365.57</v>
       </c>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="20">
         <v>365.57</v>
       </c>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="18" t="s">
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O21" s="20"/>
-    </row>
-    <row r="22" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="23">
-        <v>4</v>
-      </c>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="23" spans="7:15" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="7:13" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="5" t="s">
         <v>17</v>
       </c>
@@ -2500,102 +2477,90 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="20">
         <v>3.56</v>
       </c>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="20">
         <v>252.83</v>
       </c>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="20">
         <v>252.83</v>
       </c>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="18" t="s">
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="20"/>
-    </row>
-    <row r="31" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="8" t="s">
-        <v>25</v>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="23">
-        <v>2</v>
-      </c>
-      <c r="O31" s="24"/>
-    </row>
-    <row r="32" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="15">
-        <v>4</v>
-      </c>
-      <c r="O32" s="16"/>
-    </row>
-    <row r="33" spans="7:15" ht="40.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="7:13" ht="40.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O35" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2603,102 +2568,90 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="20">
         <v>1.7989999999999999</v>
       </c>
-      <c r="L37" s="26"/>
-    </row>
-    <row r="38" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="20">
         <v>150.96</v>
       </c>
-      <c r="L38" s="26"/>
-    </row>
-    <row r="39" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="26">
+      <c r="K39" s="20">
         <v>150.96</v>
       </c>
-      <c r="L39" s="26"/>
-    </row>
-    <row r="40" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="18" t="s">
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="20"/>
-    </row>
-    <row r="41" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="8" t="s">
-        <v>25</v>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="23">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="O41" s="24"/>
-    </row>
-    <row r="42" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="12"/>
-      <c r="N42" s="15">
-        <v>4</v>
-      </c>
-      <c r="O42" s="16"/>
-    </row>
-    <row r="43" spans="7:15" ht="40.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="7:13" ht="40.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O45" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G46" s="5" t="s">
         <v>17</v>
       </c>
@@ -2706,2273 +2659,1933 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="20">
         <v>1.389</v>
       </c>
-      <c r="L47" s="26"/>
-    </row>
-    <row r="48" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="20">
         <v>176.8</v>
       </c>
-      <c r="L48" s="26"/>
-    </row>
-    <row r="49" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K49" s="20">
         <v>176.8</v>
       </c>
-      <c r="L49" s="26"/>
-    </row>
-    <row r="50" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="18" t="s">
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="20"/>
-    </row>
-    <row r="51" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="8" t="s">
-        <v>25</v>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="23">
-        <v>1.355</v>
-      </c>
-      <c r="O51" s="24"/>
-    </row>
-    <row r="52" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="12"/>
-      <c r="N52" s="15">
-        <v>4</v>
-      </c>
-      <c r="O52" s="16"/>
-    </row>
-    <row r="53" spans="7:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="7:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O55" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="20">
         <v>0.88500000000000001</v>
       </c>
-      <c r="L57" s="26"/>
-    </row>
-    <row r="58" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="20">
         <v>85</v>
       </c>
-      <c r="L58" s="26"/>
-    </row>
-    <row r="59" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="26">
+      <c r="K59" s="20">
         <v>85</v>
       </c>
-      <c r="L59" s="26"/>
-    </row>
-    <row r="60" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G60" s="18" t="s">
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" s="20"/>
-    </row>
-    <row r="61" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G61" s="8" t="s">
-        <v>25</v>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="13"/>
+    </row>
+    <row r="61" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="23">
-        <v>0.6</v>
-      </c>
-      <c r="O61" s="24"/>
-    </row>
-    <row r="62" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G62" s="13" t="s">
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="15">
-        <v>1</v>
-      </c>
-      <c r="O62" s="16"/>
-    </row>
-    <row r="63" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G63" s="13" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="15">
-        <v>1</v>
-      </c>
-      <c r="O63" s="16"/>
-    </row>
-    <row r="64" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
       <c r="M64" s="12"/>
-      <c r="N64" s="15">
-        <v>1</v>
-      </c>
-      <c r="O64" s="16"/>
-    </row>
-    <row r="65" spans="7:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="7:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G67" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O67" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K69" s="26">
+      <c r="K69" s="20">
         <v>0.97099999999999997</v>
       </c>
-      <c r="L69" s="26"/>
-    </row>
-    <row r="70" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="26">
+      <c r="K70" s="20">
         <v>89.77</v>
       </c>
-      <c r="L70" s="26"/>
-    </row>
-    <row r="71" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="26">
+      <c r="K71" s="20">
         <v>89.77</v>
       </c>
-      <c r="L71" s="26"/>
-    </row>
-    <row r="72" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G72" s="18" t="s">
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O72" s="20"/>
-    </row>
-    <row r="73" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G73" s="8" t="s">
-        <v>25</v>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="13"/>
+    </row>
+    <row r="73" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="23">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="O73" s="24"/>
-    </row>
-    <row r="74" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G74" s="13" t="s">
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="7:17" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="15"/>
+    </row>
+    <row r="77" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="15">
-        <v>1</v>
-      </c>
-      <c r="O74" s="16"/>
-    </row>
-    <row r="75" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G75" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="15">
-        <v>1</v>
-      </c>
-      <c r="O75" s="16"/>
-    </row>
-    <row r="76" spans="7:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G76" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="27">
-        <v>1</v>
-      </c>
-      <c r="O76" s="28"/>
-    </row>
-    <row r="77" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G77" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O77" s="20"/>
-      <c r="P77" s="21" t="s">
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="28"/>
+    </row>
+    <row r="78" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="22"/>
-    </row>
-    <row r="78" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G78" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="23">
-        <v>1</v>
-      </c>
-      <c r="O78" s="24"/>
-      <c r="P78" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="31"/>
-    </row>
-    <row r="79" spans="7:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="14"/>
+      <c r="N78" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="31"/>
+    </row>
+    <row r="79" spans="7:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G81" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O81" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G82" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="26">
+      <c r="K83" s="20">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L83" s="26"/>
-    </row>
-    <row r="84" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="26">
+      <c r="K84" s="20">
         <v>88.79</v>
       </c>
-      <c r="L84" s="26"/>
-    </row>
-    <row r="85" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="20"/>
+    </row>
+    <row r="85" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G85" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K85" s="26">
+      <c r="K85" s="20">
         <v>88.79</v>
       </c>
-      <c r="L85" s="26"/>
-    </row>
-    <row r="86" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="18" t="s">
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O86" s="20"/>
-    </row>
-    <row r="87" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="8" t="s">
-        <v>25</v>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="13"/>
+    </row>
+    <row r="87" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="23">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="O87" s="24"/>
-    </row>
-    <row r="88" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G88" s="13" t="s">
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="12"/>
+    </row>
+    <row r="89" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="12"/>
+    </row>
+    <row r="90" spans="7:17" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="15"/>
+    </row>
+    <row r="91" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="15">
-        <v>1</v>
-      </c>
-      <c r="O88" s="16"/>
-    </row>
-    <row r="89" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G89" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="15">
-        <v>1</v>
-      </c>
-      <c r="O89" s="16"/>
-    </row>
-    <row r="90" spans="7:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="27">
-        <v>1</v>
-      </c>
-      <c r="O90" s="28"/>
-    </row>
-    <row r="91" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O91" s="20"/>
-      <c r="P91" s="21" t="s">
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="28"/>
+    </row>
+    <row r="92" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="22"/>
-    </row>
-    <row r="92" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G92" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="23">
-        <v>1</v>
-      </c>
-      <c r="O92" s="24"/>
-      <c r="P92" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="31"/>
-    </row>
-    <row r="93" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="14"/>
+      <c r="N92" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="31"/>
+    </row>
+    <row r="93" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G94" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G95" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O95" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G96" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G97" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K97" s="26">
+      <c r="K97" s="20">
         <v>0.98</v>
       </c>
-      <c r="L97" s="26"/>
-    </row>
-    <row r="98" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="20"/>
+    </row>
+    <row r="98" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G98" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K98" s="26">
+      <c r="K98" s="20">
         <v>85.3</v>
       </c>
-      <c r="L98" s="26"/>
-    </row>
-    <row r="99" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L98" s="20"/>
+    </row>
+    <row r="99" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G99" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K99" s="26">
+      <c r="K99" s="20">
         <v>85.3</v>
       </c>
-      <c r="L99" s="26"/>
-    </row>
-    <row r="100" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G100" s="18" t="s">
+      <c r="L99" s="20"/>
+    </row>
+    <row r="100" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O100" s="20"/>
-    </row>
-    <row r="101" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G101" s="8" t="s">
-        <v>25</v>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="13"/>
+    </row>
+    <row r="101" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="23">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="O101" s="24"/>
-    </row>
-    <row r="102" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G102" s="13" t="s">
+      <c r="M101" s="14"/>
+    </row>
+    <row r="102" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="12"/>
+    </row>
+    <row r="103" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="15">
-        <v>1</v>
-      </c>
-      <c r="O102" s="16"/>
-    </row>
-    <row r="103" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G103" s="13" t="s">
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="12"/>
+    </row>
+    <row r="104" spans="7:17" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="15">
-        <v>1</v>
-      </c>
-      <c r="O103" s="16"/>
-    </row>
-    <row r="104" spans="7:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G104" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="27">
-        <v>1</v>
-      </c>
-      <c r="O104" s="28"/>
-    </row>
-    <row r="105" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G105" s="18" t="s">
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="15"/>
+    </row>
+    <row r="105" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="20"/>
-      <c r="N105" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O105" s="20"/>
-      <c r="P105" s="21" t="s">
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="28"/>
+    </row>
+    <row r="106" spans="7:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="19"/>
-      <c r="S105" s="22"/>
-    </row>
-    <row r="106" spans="7:19" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G106" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="23">
-        <v>1</v>
-      </c>
-      <c r="O106" s="24"/>
-      <c r="P106" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q106" s="30"/>
-      <c r="R106" s="30"/>
-      <c r="S106" s="31"/>
-    </row>
-    <row r="107" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="14"/>
+      <c r="N106" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O106" s="30"/>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="31"/>
+    </row>
+    <row r="107" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G108" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O108" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G109" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G110" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K110" s="26">
+      <c r="K110" s="20">
         <v>0.98</v>
       </c>
-      <c r="L110" s="26"/>
-    </row>
-    <row r="111" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="20"/>
+    </row>
+    <row r="111" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G111" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K111" s="26">
+      <c r="K111" s="20">
         <v>85.3</v>
       </c>
-      <c r="L111" s="26"/>
-    </row>
-    <row r="112" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L111" s="20"/>
+    </row>
+    <row r="112" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G112" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K112" s="26">
+      <c r="K112" s="20">
         <v>85.3</v>
       </c>
-      <c r="L112" s="26"/>
-    </row>
-    <row r="113" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G113" s="18" t="s">
+      <c r="L112" s="20"/>
+    </row>
+    <row r="113" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G113" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O113" s="20"/>
-    </row>
-    <row r="114" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G114" s="8" t="s">
-        <v>25</v>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="13"/>
+    </row>
+    <row r="114" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="23">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="O114" s="24"/>
-    </row>
-    <row r="115" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G115" s="13" t="s">
+      <c r="M114" s="14"/>
+    </row>
+    <row r="115" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="12"/>
+    </row>
+    <row r="116" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="15">
-        <v>1</v>
-      </c>
-      <c r="O115" s="16"/>
-    </row>
-    <row r="116" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G116" s="13" t="s">
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="12"/>
+    </row>
+    <row r="117" spans="7:17" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="15">
-        <v>1</v>
-      </c>
-      <c r="O116" s="16"/>
-    </row>
-    <row r="117" spans="7:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G117" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="27">
-        <v>1</v>
-      </c>
-      <c r="O117" s="28"/>
-    </row>
-    <row r="118" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G118" s="18" t="s">
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="15"/>
+    </row>
+    <row r="118" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O118" s="20"/>
-      <c r="P118" s="21" t="s">
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="28"/>
+    </row>
+    <row r="119" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="22"/>
-    </row>
-    <row r="119" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G119" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="23">
-        <v>1</v>
-      </c>
-      <c r="O119" s="24"/>
-      <c r="P119" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q119" s="30"/>
-      <c r="R119" s="30"/>
-      <c r="S119" s="31"/>
-    </row>
-    <row r="120" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="14"/>
+      <c r="N119" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O119" s="30"/>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="31"/>
+    </row>
+    <row r="120" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G121" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="122" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G122" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O122" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G123" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G124" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K124" s="26">
+      <c r="K124" s="20">
         <v>2.0169999999999999</v>
       </c>
-      <c r="L124" s="26"/>
-    </row>
-    <row r="125" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L124" s="20"/>
+    </row>
+    <row r="125" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G125" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K125" s="26">
+      <c r="K125" s="20">
         <v>162.24</v>
       </c>
-      <c r="L125" s="26"/>
-    </row>
-    <row r="126" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L125" s="20"/>
+    </row>
+    <row r="126" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G126" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K126" s="26">
+      <c r="K126" s="20">
         <v>162.24</v>
       </c>
-      <c r="L126" s="26"/>
-    </row>
-    <row r="127" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G127" s="18" t="s">
+      <c r="L126" s="20"/>
+    </row>
+    <row r="127" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G127" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="20"/>
-      <c r="N127" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O127" s="20"/>
-    </row>
-    <row r="128" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G128" s="8" t="s">
-        <v>47</v>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="13"/>
+    </row>
+    <row r="128" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="23">
-        <v>1.365</v>
-      </c>
-      <c r="O128" s="24"/>
-    </row>
-    <row r="129" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G129" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
+      <c r="M128" s="14"/>
+    </row>
+    <row r="129" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G129" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
       <c r="M129" s="12"/>
-      <c r="N129" s="15">
-        <v>4</v>
-      </c>
-      <c r="O129" s="16"/>
-    </row>
-    <row r="130" spans="7:15" ht="40.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="7:13" ht="40.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G131" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G132" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L132" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O132" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="133" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G133" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G134" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K134" s="26">
+      <c r="K134" s="20">
         <v>1.732</v>
       </c>
-      <c r="L134" s="26"/>
-    </row>
-    <row r="135" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="20"/>
+    </row>
+    <row r="135" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G135" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K135" s="26">
+      <c r="K135" s="20">
         <v>287.8</v>
       </c>
-      <c r="L135" s="26"/>
-    </row>
-    <row r="136" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L135" s="20"/>
+    </row>
+    <row r="136" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G136" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K136" s="26">
+      <c r="K136" s="20">
         <v>287.8</v>
       </c>
-      <c r="L136" s="26"/>
-    </row>
-    <row r="137" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G137" s="18" t="s">
+      <c r="L136" s="20"/>
+    </row>
+    <row r="137" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="20"/>
-      <c r="N137" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O137" s="20"/>
-    </row>
-    <row r="138" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G138" s="8" t="s">
-        <v>49</v>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="13"/>
+    </row>
+    <row r="138" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G138" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="23">
-        <v>1</v>
-      </c>
-      <c r="O138" s="24"/>
-    </row>
-    <row r="139" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G139" s="13" t="s">
+      <c r="M138" s="14"/>
+    </row>
+    <row r="139" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="12"/>
+    </row>
+    <row r="140" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="15">
-        <v>1</v>
-      </c>
-      <c r="O139" s="16"/>
-    </row>
-    <row r="140" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G140" s="13" t="s">
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="12"/>
+    </row>
+    <row r="141" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="15">
-        <v>1</v>
-      </c>
-      <c r="O140" s="16"/>
-    </row>
-    <row r="141" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G141" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="11"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
       <c r="M141" s="12"/>
-      <c r="N141" s="15">
-        <v>3</v>
-      </c>
-      <c r="O141" s="16"/>
-    </row>
-    <row r="142" spans="7:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="7:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G143" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="144" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G144" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O144" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="145" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M144" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G145" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G146" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K146" s="26">
+      <c r="K146" s="20">
         <v>0.59199999999999997</v>
       </c>
-      <c r="L146" s="26"/>
-    </row>
-    <row r="147" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L146" s="20"/>
+    </row>
+    <row r="147" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G147" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K147" s="26">
+      <c r="K147" s="20">
         <v>65.209999999999994</v>
       </c>
-      <c r="L147" s="26"/>
-    </row>
-    <row r="148" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L147" s="20"/>
+    </row>
+    <row r="148" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G148" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K148" s="26">
+      <c r="K148" s="20">
         <v>65.209999999999994</v>
       </c>
-      <c r="L148" s="26"/>
-    </row>
-    <row r="149" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G149" s="18" t="s">
+      <c r="L148" s="20"/>
+    </row>
+    <row r="149" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="20"/>
-      <c r="N149" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O149" s="20"/>
-    </row>
-    <row r="150" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G150" s="8" t="s">
-        <v>25</v>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
+      <c r="J149" s="22"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="13"/>
+    </row>
+    <row r="150" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
-      <c r="M150" s="7"/>
-      <c r="N150" s="23">
-        <v>0.61</v>
-      </c>
-      <c r="O150" s="24"/>
-    </row>
-    <row r="151" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G151" s="13" t="s">
+      <c r="M150" s="14"/>
+    </row>
+    <row r="151" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="12"/>
+    </row>
+    <row r="152" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="11"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="15">
-        <v>1</v>
-      </c>
-      <c r="O151" s="16"/>
-    </row>
-    <row r="152" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G152" s="13" t="s">
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="12"/>
+    </row>
+    <row r="153" spans="7:17" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G153" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="15">
-        <v>1</v>
-      </c>
-      <c r="O152" s="16"/>
-    </row>
-    <row r="153" spans="7:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G153" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
-      <c r="M153" s="10"/>
-      <c r="N153" s="27">
-        <v>1</v>
-      </c>
-      <c r="O153" s="28"/>
-    </row>
-    <row r="154" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G154" s="18" t="s">
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="15"/>
+    </row>
+    <row r="154" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G154" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="20"/>
-      <c r="N154" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O154" s="20"/>
-      <c r="P154" s="21" t="s">
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="13"/>
+      <c r="N154" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O154" s="22"/>
+      <c r="P154" s="22"/>
+      <c r="Q154" s="28"/>
+    </row>
+    <row r="155" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="19"/>
-      <c r="S154" s="22"/>
-    </row>
-    <row r="155" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G155" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
-      <c r="M155" s="7"/>
-      <c r="N155" s="23">
-        <v>1</v>
-      </c>
-      <c r="O155" s="24"/>
-      <c r="P155" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q155" s="30"/>
-      <c r="R155" s="30"/>
-      <c r="S155" s="31"/>
-    </row>
-    <row r="156" spans="7:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="14"/>
+      <c r="N155" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O155" s="30"/>
+      <c r="P155" s="30"/>
+      <c r="Q155" s="31"/>
+    </row>
+    <row r="156" spans="7:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G157" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G158" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L158" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O158" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="159" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G159" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="160" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G160" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K160" s="26">
+      <c r="K160" s="20">
         <v>0.35099999999999998</v>
       </c>
-      <c r="L160" s="26"/>
-    </row>
-    <row r="161" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L160" s="20"/>
+    </row>
+    <row r="161" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G161" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K161" s="26">
+      <c r="K161" s="20">
         <v>54.05</v>
       </c>
-      <c r="L161" s="26"/>
-    </row>
-    <row r="162" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L161" s="20"/>
+    </row>
+    <row r="162" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G162" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K162" s="26">
+      <c r="K162" s="20">
         <v>54.05</v>
       </c>
-      <c r="L162" s="26"/>
-    </row>
-    <row r="163" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G163" s="18" t="s">
+      <c r="L162" s="20"/>
+    </row>
+    <row r="163" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G163" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="20"/>
-      <c r="N163" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O163" s="20"/>
-    </row>
-    <row r="164" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G164" s="8" t="s">
-        <v>25</v>
+      <c r="H163" s="22"/>
+      <c r="I163" s="22"/>
+      <c r="J163" s="22"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="13"/>
+    </row>
+    <row r="164" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
-      <c r="M164" s="7"/>
-      <c r="N164" s="23">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="O164" s="24"/>
-    </row>
-    <row r="165" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G165" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="11"/>
+      <c r="M164" s="14"/>
+    </row>
+    <row r="165" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
       <c r="M165" s="12"/>
-      <c r="N165" s="15">
-        <v>1</v>
-      </c>
-      <c r="O165" s="16"/>
-    </row>
-    <row r="166" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G166" s="13" t="s">
+    </row>
+    <row r="166" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G166" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="12"/>
+    </row>
+    <row r="167" spans="7:17" ht="12.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G167" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="15">
-        <v>1</v>
-      </c>
-      <c r="O166" s="16"/>
-    </row>
-    <row r="167" spans="7:19" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G167" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="27">
-        <v>1</v>
-      </c>
-      <c r="O167" s="28"/>
-    </row>
-    <row r="168" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G168" s="18" t="s">
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="15"/>
+    </row>
+    <row r="168" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G168" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="20"/>
-      <c r="N168" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O168" s="20"/>
-      <c r="P168" s="21" t="s">
+      <c r="H168" s="22"/>
+      <c r="I168" s="22"/>
+      <c r="J168" s="22"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O168" s="22"/>
+      <c r="P168" s="22"/>
+      <c r="Q168" s="28"/>
+    </row>
+    <row r="169" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q168" s="19"/>
-      <c r="R168" s="19"/>
-      <c r="S168" s="22"/>
-    </row>
-    <row r="169" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G169" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
-      <c r="M169" s="7"/>
-      <c r="N169" s="23">
-        <v>1</v>
-      </c>
-      <c r="O169" s="24"/>
-      <c r="P169" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q169" s="30"/>
-      <c r="R169" s="30"/>
-      <c r="S169" s="31"/>
-    </row>
-    <row r="170" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M169" s="14"/>
+      <c r="N169" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O169" s="30"/>
+      <c r="P169" s="30"/>
+      <c r="Q169" s="31"/>
+    </row>
+    <row r="170" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G171" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G172" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L172" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O172" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="173" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G173" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="174" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K174" s="26">
+      <c r="K174" s="20">
         <v>2.4319999999999999</v>
       </c>
-      <c r="L174" s="26"/>
-    </row>
-    <row r="175" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L174" s="20"/>
+    </row>
+    <row r="175" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K175" s="26">
+      <c r="K175" s="20">
         <v>464.64</v>
       </c>
-      <c r="L175" s="26"/>
-    </row>
-    <row r="176" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L175" s="20"/>
+    </row>
+    <row r="176" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G176" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K176" s="26">
+      <c r="K176" s="20">
         <v>464.64</v>
       </c>
-      <c r="L176" s="26"/>
-    </row>
-    <row r="177" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G177" s="18" t="s">
+      <c r="L176" s="20"/>
+    </row>
+    <row r="177" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G177" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="20"/>
-      <c r="N177" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O177" s="20"/>
-    </row>
-    <row r="178" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G178" s="8" t="s">
-        <v>49</v>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
+      <c r="J177" s="22"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="22"/>
+      <c r="M177" s="13"/>
+    </row>
+    <row r="178" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
-      <c r="M178" s="7"/>
-      <c r="N178" s="23">
-        <v>1</v>
-      </c>
-      <c r="O178" s="24"/>
-    </row>
-    <row r="179" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G179" s="13" t="s">
+      <c r="M178" s="14"/>
+    </row>
+    <row r="179" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="12"/>
+    </row>
+    <row r="180" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="12"/>
+    </row>
+    <row r="181" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G181" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+      <c r="M181" s="12"/>
+    </row>
+    <row r="182" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="12"/>
+    </row>
+    <row r="183" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G183" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="15">
-        <v>2</v>
-      </c>
-      <c r="O179" s="16"/>
-    </row>
-    <row r="180" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G180" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="11"/>
-      <c r="K180" s="11"/>
-      <c r="L180" s="11"/>
-      <c r="M180" s="12"/>
-      <c r="N180" s="15">
-        <v>1</v>
-      </c>
-      <c r="O180" s="16"/>
-    </row>
-    <row r="181" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G181" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="11"/>
-      <c r="L181" s="11"/>
-      <c r="M181" s="12"/>
-      <c r="N181" s="15">
-        <v>1</v>
-      </c>
-      <c r="O181" s="16"/>
-    </row>
-    <row r="182" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G182" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="11"/>
-      <c r="L182" s="11"/>
-      <c r="M182" s="12"/>
-      <c r="N182" s="15">
-        <v>6</v>
-      </c>
-      <c r="O182" s="16"/>
-    </row>
-    <row r="183" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G183" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="11"/>
-      <c r="L183" s="11"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
       <c r="M183" s="12"/>
-      <c r="N183" s="15">
-        <v>1.986</v>
-      </c>
-      <c r="O183" s="16"/>
-    </row>
-    <row r="184" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="186" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L186" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O186" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="187" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M186" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G187" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="188" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G188" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K188" s="26">
+      <c r="K188" s="20">
         <v>1.9810000000000001</v>
       </c>
-      <c r="L188" s="26"/>
-    </row>
-    <row r="189" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L188" s="20"/>
+    </row>
+    <row r="189" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G189" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K189" s="26">
+      <c r="K189" s="20">
         <v>416.88</v>
       </c>
-      <c r="L189" s="26"/>
-    </row>
-    <row r="190" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L189" s="20"/>
+    </row>
+    <row r="190" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G190" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K190" s="26">
+      <c r="K190" s="20">
         <v>416.88</v>
       </c>
-      <c r="L190" s="26"/>
-    </row>
-    <row r="191" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G191" s="18" t="s">
+      <c r="L190" s="20"/>
+    </row>
+    <row r="191" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G191" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="20"/>
-      <c r="N191" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O191" s="20"/>
-    </row>
-    <row r="192" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G192" s="8" t="s">
-        <v>49</v>
+      <c r="H191" s="22"/>
+      <c r="I191" s="22"/>
+      <c r="J191" s="22"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="22"/>
+      <c r="M191" s="13"/>
+    </row>
+    <row r="192" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G192" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
-      <c r="M192" s="7"/>
-      <c r="N192" s="23">
-        <v>1</v>
-      </c>
-      <c r="O192" s="24"/>
-    </row>
-    <row r="193" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G193" s="13" t="s">
+      <c r="M192" s="14"/>
+    </row>
+    <row r="193" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G193" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="9"/>
+      <c r="M193" s="12"/>
+    </row>
+    <row r="194" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="9"/>
+      <c r="L194" s="9"/>
+      <c r="M194" s="12"/>
+    </row>
+    <row r="195" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="12"/>
+    </row>
+    <row r="196" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G196" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H196" s="9"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="12"/>
+    </row>
+    <row r="197" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G197" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="11"/>
-      <c r="L193" s="11"/>
-      <c r="M193" s="12"/>
-      <c r="N193" s="15">
-        <v>2</v>
-      </c>
-      <c r="O193" s="16"/>
-    </row>
-    <row r="194" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G194" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11"/>
-      <c r="M194" s="12"/>
-      <c r="N194" s="15">
-        <v>1</v>
-      </c>
-      <c r="O194" s="16"/>
-    </row>
-    <row r="195" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G195" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
-      <c r="J195" s="11"/>
-      <c r="K195" s="11"/>
-      <c r="L195" s="11"/>
-      <c r="M195" s="12"/>
-      <c r="N195" s="15">
-        <v>1</v>
-      </c>
-      <c r="O195" s="16"/>
-    </row>
-    <row r="196" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G196" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="11"/>
-      <c r="L196" s="11"/>
-      <c r="M196" s="12"/>
-      <c r="N196" s="15">
-        <v>6</v>
-      </c>
-      <c r="O196" s="16"/>
-    </row>
-    <row r="197" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G197" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="11"/>
-      <c r="K197" s="11"/>
-      <c r="L197" s="11"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
       <c r="M197" s="12"/>
-      <c r="N197" s="15">
-        <v>1.601</v>
-      </c>
-      <c r="O197" s="16"/>
-    </row>
-    <row r="198" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G199" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="200" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G200" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L200" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O200" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="201" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M200" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G201" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="202" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G202" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K202" s="26">
+      <c r="K202" s="20">
         <v>2.621</v>
       </c>
-      <c r="L202" s="26"/>
-    </row>
-    <row r="203" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L202" s="20"/>
+    </row>
+    <row r="203" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G203" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K203" s="26">
+      <c r="K203" s="20">
         <v>471.89</v>
       </c>
-      <c r="L203" s="26"/>
-    </row>
-    <row r="204" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L203" s="20"/>
+    </row>
+    <row r="204" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G204" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K204" s="26">
+      <c r="K204" s="20">
         <v>471.89</v>
       </c>
-      <c r="L204" s="26"/>
-    </row>
-    <row r="205" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G205" s="18" t="s">
+      <c r="L204" s="20"/>
+    </row>
+    <row r="205" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G205" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="20"/>
-      <c r="N205" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O205" s="20"/>
-    </row>
-    <row r="206" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G206" s="8" t="s">
-        <v>49</v>
+      <c r="H205" s="22"/>
+      <c r="I205" s="22"/>
+      <c r="J205" s="22"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="22"/>
+      <c r="M205" s="13"/>
+    </row>
+    <row r="206" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G206" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
-      <c r="M206" s="7"/>
-      <c r="N206" s="23">
-        <v>1</v>
-      </c>
-      <c r="O206" s="24"/>
-    </row>
-    <row r="207" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G207" s="13" t="s">
+      <c r="M206" s="14"/>
+    </row>
+    <row r="207" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G207" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="9"/>
+      <c r="M207" s="12"/>
+    </row>
+    <row r="208" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G208" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H208" s="9"/>
+      <c r="I208" s="9"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="9"/>
+      <c r="L208" s="9"/>
+      <c r="M208" s="12"/>
+    </row>
+    <row r="209" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G209" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="9"/>
+      <c r="L209" s="9"/>
+      <c r="M209" s="12"/>
+    </row>
+    <row r="210" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G210" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+      <c r="L210" s="9"/>
+      <c r="M210" s="12"/>
+    </row>
+    <row r="211" spans="7:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G211" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="11"/>
-      <c r="L207" s="11"/>
-      <c r="M207" s="12"/>
-      <c r="N207" s="15">
-        <v>2</v>
-      </c>
-      <c r="O207" s="16"/>
-    </row>
-    <row r="208" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G208" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="11"/>
-      <c r="K208" s="11"/>
-      <c r="L208" s="11"/>
-      <c r="M208" s="12"/>
-      <c r="N208" s="15">
-        <v>1</v>
-      </c>
-      <c r="O208" s="16"/>
-    </row>
-    <row r="209" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G209" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H209" s="11"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="11"/>
-      <c r="K209" s="11"/>
-      <c r="L209" s="11"/>
-      <c r="M209" s="12"/>
-      <c r="N209" s="15">
-        <v>1</v>
-      </c>
-      <c r="O209" s="16"/>
-    </row>
-    <row r="210" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G210" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
-      <c r="K210" s="11"/>
-      <c r="L210" s="11"/>
-      <c r="M210" s="12"/>
-      <c r="N210" s="15">
-        <v>6</v>
-      </c>
-      <c r="O210" s="16"/>
-    </row>
-    <row r="211" spans="7:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G211" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="11"/>
-      <c r="K211" s="11"/>
-      <c r="L211" s="11"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
       <c r="M211" s="12"/>
-      <c r="N211" s="15">
-        <v>1.79</v>
-      </c>
-      <c r="O211" s="16"/>
-    </row>
-    <row r="212" spans="7:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="7:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G213" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="214" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G214" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L214" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O214" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="215" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G215" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G216" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K216" s="26">
+      <c r="K216" s="20">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L216" s="26"/>
-    </row>
-    <row r="217" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L216" s="20"/>
+    </row>
+    <row r="217" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G217" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K217" s="26">
+      <c r="K217" s="20">
         <v>20.72</v>
       </c>
-      <c r="L217" s="26"/>
-    </row>
-    <row r="218" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L217" s="20"/>
+    </row>
+    <row r="218" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G218" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K218" s="26">
+      <c r="K218" s="20">
         <v>20.72</v>
       </c>
-      <c r="L218" s="26"/>
-    </row>
-    <row r="219" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G219" s="18" t="s">
+      <c r="L218" s="20"/>
+    </row>
+    <row r="219" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G219" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="19"/>
-      <c r="K219" s="19"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="20"/>
-      <c r="N219" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O219" s="20"/>
-    </row>
-    <row r="220" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G220" s="8" t="s">
-        <v>25</v>
+      <c r="H219" s="22"/>
+      <c r="I219" s="22"/>
+      <c r="J219" s="22"/>
+      <c r="K219" s="22"/>
+      <c r="L219" s="22"/>
+      <c r="M219" s="13"/>
+    </row>
+    <row r="220" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G220" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
-      <c r="M220" s="7"/>
-      <c r="N220" s="23">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="O220" s="24"/>
-    </row>
-    <row r="221" spans="7:15" ht="53.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M220" s="14"/>
+    </row>
+    <row r="221" spans="7:13" ht="53.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G222" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="223" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="223" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G223" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L223" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O223" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M223" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G224" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="225" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G225" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K225" s="26">
+      <c r="K225" s="20">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L225" s="26"/>
-    </row>
-    <row r="226" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L225" s="20"/>
+    </row>
+    <row r="226" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G226" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K226" s="26">
+      <c r="K226" s="20">
         <v>20.72</v>
       </c>
-      <c r="L226" s="26"/>
-    </row>
-    <row r="227" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L226" s="20"/>
+    </row>
+    <row r="227" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G227" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K227" s="26">
+      <c r="K227" s="20">
         <v>20.72</v>
       </c>
-      <c r="L227" s="26"/>
-    </row>
-    <row r="228" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G228" s="18" t="s">
+      <c r="L227" s="20"/>
+    </row>
+    <row r="228" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G228" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="19"/>
-      <c r="L228" s="19"/>
-      <c r="M228" s="20"/>
-      <c r="N228" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O228" s="20"/>
-    </row>
-    <row r="229" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G229" s="8" t="s">
-        <v>25</v>
+      <c r="H228" s="22"/>
+      <c r="I228" s="22"/>
+      <c r="J228" s="22"/>
+      <c r="K228" s="22"/>
+      <c r="L228" s="22"/>
+      <c r="M228" s="13"/>
+    </row>
+    <row r="229" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G229" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
-      <c r="M229" s="7"/>
-      <c r="N229" s="23">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="O229" s="24"/>
-    </row>
-    <row r="230" spans="7:15" ht="53.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M229" s="14"/>
+    </row>
+    <row r="230" spans="7:13" ht="53.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G231" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="232" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="232" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G232" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L232" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O232" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M232" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G233" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="234" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G234" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K234" s="26">
+      <c r="K234" s="20">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L234" s="26"/>
-    </row>
-    <row r="235" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L234" s="20"/>
+    </row>
+    <row r="235" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G235" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K235" s="26">
+      <c r="K235" s="20">
         <v>20.72</v>
       </c>
-      <c r="L235" s="26"/>
-    </row>
-    <row r="236" spans="7:15" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L235" s="20"/>
+    </row>
+    <row r="236" spans="7:13" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G236" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K236" s="26">
+      <c r="K236" s="20">
         <v>20.72</v>
       </c>
-      <c r="L236" s="26"/>
-    </row>
-    <row r="237" spans="7:15" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G237" s="18" t="s">
+      <c r="L236" s="20"/>
+    </row>
+    <row r="237" spans="7:13" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G237" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="19"/>
-      <c r="L237" s="19"/>
-      <c r="M237" s="20"/>
-      <c r="N237" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O237" s="20"/>
-    </row>
-    <row r="238" spans="7:15" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G238" s="8" t="s">
-        <v>25</v>
+      <c r="H237" s="22"/>
+      <c r="I237" s="22"/>
+      <c r="J237" s="22"/>
+      <c r="K237" s="22"/>
+      <c r="L237" s="22"/>
+      <c r="M237" s="13"/>
+    </row>
+    <row r="238" spans="7:13" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G238" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
-      <c r="M238" s="7"/>
-      <c r="N238" s="23">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="O238" s="24"/>
-    </row>
-    <row r="239" spans="7:15" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="7:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M238" s="14"/>
+    </row>
+    <row r="239" spans="7:13" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="7:13" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G240" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="241" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="241" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G241" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L241" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O241" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="242" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M241" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G242" s="5" t="s">
         <v>17</v>
       </c>
@@ -4980,324 +4593,211 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G243" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K243" s="26">
+      <c r="K243" s="20">
         <v>3.0190000000000001</v>
       </c>
-      <c r="L243" s="26"/>
-    </row>
-    <row r="244" spans="7:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L243" s="20"/>
+    </row>
+    <row r="244" spans="7:17" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G244" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K244" s="26">
+      <c r="K244" s="20">
         <v>216.98</v>
       </c>
-      <c r="L244" s="26"/>
-    </row>
-    <row r="245" spans="7:19" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L244" s="20"/>
+    </row>
+    <row r="245" spans="7:17" ht="12.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G245" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K245" s="26">
+      <c r="K245" s="20">
         <v>216.98</v>
       </c>
-      <c r="L245" s="26"/>
-    </row>
-    <row r="246" spans="7:19" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G246" s="18" t="s">
+      <c r="L245" s="20"/>
+    </row>
+    <row r="246" spans="7:17" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G246" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="19"/>
-      <c r="L246" s="19"/>
-      <c r="M246" s="20"/>
-      <c r="N246" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O246" s="20"/>
-      <c r="P246" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q246" s="19"/>
-      <c r="R246" s="19"/>
-      <c r="S246" s="22"/>
-    </row>
-    <row r="247" spans="7:19" ht="12.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G247" s="8" t="s">
-        <v>25</v>
+      <c r="H246" s="22"/>
+      <c r="I246" s="22"/>
+      <c r="J246" s="22"/>
+      <c r="K246" s="22"/>
+      <c r="L246" s="22"/>
+      <c r="M246" s="13"/>
+      <c r="N246" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O246" s="22"/>
+      <c r="P246" s="22"/>
+      <c r="Q246" s="28"/>
+    </row>
+    <row r="247" spans="7:17" ht="12.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G247" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
-      <c r="M247" s="7"/>
-      <c r="N247" s="23">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="O247" s="24"/>
-      <c r="P247" s="23">
+      <c r="M247" s="14"/>
+      <c r="N247" s="24">
         <v>0</v>
       </c>
+      <c r="O247" s="33"/>
+      <c r="P247" s="33"/>
       <c r="Q247" s="25"/>
-      <c r="R247" s="25"/>
-      <c r="S247" s="24"/>
-    </row>
-    <row r="248" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G248" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H248" s="11"/>
-      <c r="I248" s="11"/>
-      <c r="J248" s="11"/>
-      <c r="K248" s="11"/>
-      <c r="L248" s="11"/>
+    </row>
+    <row r="248" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G248" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H248" s="9"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
+      <c r="L248" s="9"/>
       <c r="M248" s="12"/>
-      <c r="N248" s="15">
-        <v>170</v>
-      </c>
-      <c r="O248" s="16"/>
-      <c r="P248" s="15">
+      <c r="N248" s="26">
         <v>15.81</v>
       </c>
-      <c r="Q248" s="17"/>
-      <c r="R248" s="17"/>
-      <c r="S248" s="16"/>
-    </row>
-    <row r="249" spans="7:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G249" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H249" s="11"/>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="11"/>
-      <c r="L249" s="11"/>
+      <c r="O248" s="32"/>
+      <c r="P248" s="32"/>
+      <c r="Q248" s="27"/>
+    </row>
+    <row r="249" spans="7:17" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G249" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H249" s="9"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="9"/>
+      <c r="K249" s="9"/>
+      <c r="L249" s="9"/>
       <c r="M249" s="12"/>
-      <c r="N249" s="15">
-        <v>4</v>
-      </c>
-      <c r="O249" s="16"/>
-      <c r="P249" s="15">
+      <c r="N249" s="26">
         <v>0</v>
       </c>
-      <c r="Q249" s="17"/>
-      <c r="R249" s="17"/>
-      <c r="S249" s="16"/>
+      <c r="O249" s="32"/>
+      <c r="P249" s="32"/>
+      <c r="Q249" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="205">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="G9:Q9"/>
-    <mergeCell ref="G10:Q10"/>
-    <mergeCell ref="G11:Q11"/>
-    <mergeCell ref="G12:Q12"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:S77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:S78"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="G91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P91:S91"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="G86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="G105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="G100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="G113:M113"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="G127:M127"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="N129:O129"/>
-    <mergeCell ref="G118:M118"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P118:S118"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P119:S119"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="N139:O139"/>
-    <mergeCell ref="N140:O140"/>
-    <mergeCell ref="N141:O141"/>
+  <mergeCells count="108">
+    <mergeCell ref="N249:Q249"/>
+    <mergeCell ref="G246:L246"/>
+    <mergeCell ref="N246:Q246"/>
+    <mergeCell ref="N247:Q247"/>
+    <mergeCell ref="N248:Q248"/>
+    <mergeCell ref="G237:L237"/>
+    <mergeCell ref="K243:L243"/>
+    <mergeCell ref="K244:L244"/>
+    <mergeCell ref="K245:L245"/>
+    <mergeCell ref="G228:L228"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="K235:L235"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="G219:L219"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="K226:L226"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="G205:L205"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="G191:L191"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="G177:L177"/>
+    <mergeCell ref="G168:L168"/>
+    <mergeCell ref="N168:Q168"/>
+    <mergeCell ref="N169:Q169"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="G163:L163"/>
+    <mergeCell ref="G154:L154"/>
+    <mergeCell ref="N154:Q154"/>
+    <mergeCell ref="N155:Q155"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="G149:L149"/>
     <mergeCell ref="K146:L146"/>
     <mergeCell ref="K147:L147"/>
     <mergeCell ref="K148:L148"/>
     <mergeCell ref="K134:L134"/>
     <mergeCell ref="K135:L135"/>
     <mergeCell ref="K136:L136"/>
-    <mergeCell ref="G137:M137"/>
-    <mergeCell ref="N137:O137"/>
-    <mergeCell ref="N138:O138"/>
-    <mergeCell ref="G154:M154"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="P154:S154"/>
-    <mergeCell ref="N155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="G149:M149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P168:S168"/>
-    <mergeCell ref="N169:O169"/>
-    <mergeCell ref="P169:S169"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="G163:M163"/>
-    <mergeCell ref="N163:O163"/>
-    <mergeCell ref="N164:O164"/>
-    <mergeCell ref="N165:O165"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="G177:M177"/>
-    <mergeCell ref="N177:O177"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="N166:O166"/>
-    <mergeCell ref="N167:O167"/>
-    <mergeCell ref="G168:M168"/>
-    <mergeCell ref="N168:O168"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="G191:M191"/>
-    <mergeCell ref="N191:O191"/>
-    <mergeCell ref="N192:O192"/>
-    <mergeCell ref="N193:O193"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="N181:O181"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="G205:M205"/>
-    <mergeCell ref="N205:O205"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="N194:O194"/>
-    <mergeCell ref="N195:O195"/>
-    <mergeCell ref="N196:O196"/>
-    <mergeCell ref="N197:O197"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="G219:M219"/>
-    <mergeCell ref="N219:O219"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="K225:L225"/>
-    <mergeCell ref="K226:L226"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="N209:O209"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="N211:O211"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="G237:M237"/>
-    <mergeCell ref="N237:O237"/>
-    <mergeCell ref="N238:O238"/>
-    <mergeCell ref="K243:L243"/>
-    <mergeCell ref="K244:L244"/>
-    <mergeCell ref="K245:L245"/>
-    <mergeCell ref="G228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="K234:L234"/>
-    <mergeCell ref="K235:L235"/>
-    <mergeCell ref="K236:L236"/>
-    <mergeCell ref="N249:O249"/>
-    <mergeCell ref="P249:S249"/>
-    <mergeCell ref="G246:M246"/>
-    <mergeCell ref="N246:O246"/>
-    <mergeCell ref="P246:S246"/>
-    <mergeCell ref="N247:O247"/>
-    <mergeCell ref="P247:S247"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="P248:S248"/>
+    <mergeCell ref="G137:L137"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="G127:L127"/>
+    <mergeCell ref="G118:L118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="G113:L113"/>
+    <mergeCell ref="N105:Q105"/>
+    <mergeCell ref="N106:Q106"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="G105:L105"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="G100:L100"/>
+    <mergeCell ref="G91:L91"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="G86:L86"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="G72:L72"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5311,7 +4811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5323,7 +4823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
